--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Reln-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Reln-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Reln</t>
+  </si>
+  <si>
+    <t>Itga3</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Reln</t>
-  </si>
-  <si>
-    <t>Itga3</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2047723333333333</v>
+        <v>0.1471086666666667</v>
       </c>
       <c r="H2">
-        <v>0.614317</v>
+        <v>0.441326</v>
       </c>
       <c r="I2">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="J2">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N2">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O2">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P2">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q2">
-        <v>2.616770357999111</v>
+        <v>1.656075765963778</v>
       </c>
       <c r="R2">
-        <v>23.550933221992</v>
+        <v>14.904681893674</v>
       </c>
       <c r="S2">
-        <v>0.0333582636455922</v>
+        <v>0.02428160316130831</v>
       </c>
       <c r="T2">
-        <v>0.0333582636455922</v>
+        <v>0.02428160316130831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2047723333333333</v>
+        <v>0.1471086666666667</v>
       </c>
       <c r="H3">
-        <v>0.614317</v>
+        <v>0.441326</v>
       </c>
       <c r="I3">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="J3">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N3">
         <v>2.969483</v>
       </c>
       <c r="O3">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P3">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q3">
-        <v>0.2026893209012222</v>
+        <v>0.1456122282731111</v>
       </c>
       <c r="R3">
-        <v>1.824203888111</v>
+        <v>1.310510054458</v>
       </c>
       <c r="S3">
-        <v>0.002583858298493959</v>
+        <v>0.002134985859360046</v>
       </c>
       <c r="T3">
-        <v>0.00258385829849396</v>
+        <v>0.002134985859360046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2047723333333333</v>
+        <v>0.1471086666666667</v>
       </c>
       <c r="H4">
-        <v>0.614317</v>
+        <v>0.441326</v>
       </c>
       <c r="I4">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="J4">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N4">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O4">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P4">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q4">
-        <v>0.8053267895823334</v>
+        <v>0.5621878325773333</v>
       </c>
       <c r="R4">
-        <v>7.247941106241001</v>
+        <v>5.059690493196</v>
       </c>
       <c r="S4">
-        <v>0.01026620593038488</v>
+        <v>0.008242872779926554</v>
       </c>
       <c r="T4">
-        <v>0.01026620593038488</v>
+        <v>0.008242872779926554</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2047723333333333</v>
+        <v>0.1471086666666667</v>
       </c>
       <c r="H5">
-        <v>0.614317</v>
+        <v>0.441326</v>
       </c>
       <c r="I5">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="J5">
-        <v>0.04628602070509372</v>
+        <v>0.03503939655440032</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N5">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O5">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P5">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q5">
-        <v>0.006094570699555556</v>
+        <v>0.02591265223488889</v>
       </c>
       <c r="R5">
-        <v>0.054851136296</v>
+        <v>0.233213870114</v>
       </c>
       <c r="S5">
-        <v>7.769283062268032E-05</v>
+        <v>0.0003799347538054143</v>
       </c>
       <c r="T5">
-        <v>7.769283062268034E-05</v>
+        <v>0.0003799347538054144</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>3.089199</v>
       </c>
       <c r="I6">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358486</v>
       </c>
       <c r="J6">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358485</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N6">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O6">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P6">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q6">
-        <v>13.15888112026933</v>
+        <v>11.59221890425567</v>
       </c>
       <c r="R6">
-        <v>118.429930082424</v>
+        <v>104.329970138301</v>
       </c>
       <c r="S6">
-        <v>0.1677477828152237</v>
+        <v>0.1699666554980003</v>
       </c>
       <c r="T6">
-        <v>0.1677477828152237</v>
+        <v>0.1699666554980002</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>3.089199</v>
       </c>
       <c r="I7">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358486</v>
       </c>
       <c r="J7">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358485</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N7">
         <v>2.969483</v>
       </c>
       <c r="O7">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P7">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q7">
         <v>1.019258212679667</v>
       </c>
       <c r="R7">
-        <v>9.173323914116999</v>
+        <v>9.173323914117001</v>
       </c>
       <c r="S7">
-        <v>0.01299337715194149</v>
+        <v>0.0149444994896045</v>
       </c>
       <c r="T7">
-        <v>0.01299337715194149</v>
+        <v>0.0149444994896045</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>3.089199</v>
       </c>
       <c r="I8">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358486</v>
       </c>
       <c r="J8">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358485</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N8">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O8">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P8">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q8">
-        <v>4.049724674803</v>
+        <v>3.935209097606</v>
       </c>
       <c r="R8">
-        <v>36.44752207322701</v>
+        <v>35.416881878454</v>
       </c>
       <c r="S8">
-        <v>0.05162538737156717</v>
+        <v>0.05769855922577943</v>
       </c>
       <c r="T8">
-        <v>0.05162538737156718</v>
+        <v>0.05769855922577943</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>3.089199</v>
       </c>
       <c r="I9">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358486</v>
       </c>
       <c r="J9">
-        <v>0.2327572391390028</v>
+        <v>0.2452691860358485</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N9">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O9">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P9">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q9">
-        <v>0.03064760003466667</v>
+        <v>0.1813836922623333</v>
       </c>
       <c r="R9">
-        <v>0.275828400312</v>
+        <v>1.632453230361</v>
       </c>
       <c r="S9">
-        <v>0.0003906918002704686</v>
+        <v>0.002659471822464419</v>
       </c>
       <c r="T9">
-        <v>0.0003906918002704686</v>
+        <v>0.002659471822464419</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.185333333333334</v>
+        <v>3.021537333333333</v>
       </c>
       <c r="H10">
-        <v>9.556000000000001</v>
+        <v>9.064612</v>
       </c>
       <c r="I10">
-        <v>0.720001585269292</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="J10">
-        <v>0.7200015852692919</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N10">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O10">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P10">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q10">
-        <v>40.70513682844445</v>
+        <v>34.01495552282088</v>
       </c>
       <c r="R10">
-        <v>366.3462314560001</v>
+        <v>306.134599705388</v>
       </c>
       <c r="S10">
-        <v>0.5189040306507537</v>
+        <v>0.4987318023303255</v>
       </c>
       <c r="T10">
-        <v>0.5189040306507537</v>
+        <v>0.4987318023303255</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.185333333333334</v>
+        <v>3.021537333333333</v>
       </c>
       <c r="H11">
-        <v>9.556000000000001</v>
+        <v>9.064612</v>
       </c>
       <c r="I11">
-        <v>0.720001585269292</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="J11">
-        <v>0.7200015852692919</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N11">
         <v>2.969483</v>
       </c>
       <c r="O11">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P11">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q11">
-        <v>3.152931060888889</v>
+        <v>2.990801248399556</v>
       </c>
       <c r="R11">
-        <v>28.376379548</v>
+        <v>26.917211235596</v>
       </c>
       <c r="S11">
-        <v>0.04019317372042167</v>
+        <v>0.04385152572154231</v>
       </c>
       <c r="T11">
-        <v>0.04019317372042167</v>
+        <v>0.04385152572154232</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.185333333333334</v>
+        <v>3.021537333333333</v>
       </c>
       <c r="H12">
-        <v>9.556000000000001</v>
+        <v>9.064612</v>
       </c>
       <c r="I12">
-        <v>0.720001585269292</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="J12">
-        <v>0.7200015852692919</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N12">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O12">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P12">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q12">
-        <v>12.52725026533334</v>
+        <v>11.54705268539467</v>
       </c>
       <c r="R12">
-        <v>112.745252388</v>
+        <v>103.923474168552</v>
       </c>
       <c r="S12">
-        <v>0.1596958310949524</v>
+        <v>0.1693044223893349</v>
       </c>
       <c r="T12">
-        <v>0.1596958310949524</v>
+        <v>0.1693044223893349</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.185333333333334</v>
+        <v>3.021537333333333</v>
       </c>
       <c r="H13">
-        <v>9.556000000000001</v>
+        <v>9.064612</v>
       </c>
       <c r="I13">
-        <v>0.720001585269292</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="J13">
-        <v>0.7200015852692919</v>
+        <v>0.7196914174097511</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N13">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O13">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P13">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q13">
-        <v>0.09480401422222225</v>
+        <v>0.5322327222964444</v>
       </c>
       <c r="R13">
-        <v>0.8532361280000001</v>
+        <v>4.790094500668</v>
       </c>
       <c r="S13">
-        <v>0.001208549803164056</v>
+        <v>0.007803666968548429</v>
       </c>
       <c r="T13">
-        <v>0.001208549803164056</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.004225666666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.012677</v>
-      </c>
-      <c r="I14">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="J14">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>12.77892533333333</v>
-      </c>
-      <c r="N14">
-        <v>38.336776</v>
-      </c>
-      <c r="O14">
-        <v>0.7206984557633653</v>
-      </c>
-      <c r="P14">
-        <v>0.7206984557633654</v>
-      </c>
-      <c r="Q14">
-        <v>0.05399947881688889</v>
-      </c>
-      <c r="R14">
-        <v>0.485995309352</v>
-      </c>
-      <c r="S14">
-        <v>0.0006883786517956891</v>
-      </c>
-      <c r="T14">
-        <v>0.0006883786517956892</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.004225666666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.012677</v>
-      </c>
-      <c r="I15">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="J15">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.9898276666666667</v>
-      </c>
-      <c r="N15">
-        <v>2.969483</v>
-      </c>
-      <c r="O15">
-        <v>0.05582372947885773</v>
-      </c>
-      <c r="P15">
-        <v>0.05582372947885773</v>
-      </c>
-      <c r="Q15">
-        <v>0.004182681776777778</v>
-      </c>
-      <c r="R15">
-        <v>0.03764413599099999</v>
-      </c>
-      <c r="S15">
-        <v>5.332030800060543E-05</v>
-      </c>
-      <c r="T15">
-        <v>5.332030800060543E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.004225666666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.012677</v>
-      </c>
-      <c r="I16">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="J16">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.932791</v>
-      </c>
-      <c r="N16">
-        <v>11.798373</v>
-      </c>
-      <c r="O16">
-        <v>0.2217992770602354</v>
-      </c>
-      <c r="P16">
-        <v>0.2217992770602355</v>
-      </c>
-      <c r="Q16">
-        <v>0.01661866383566667</v>
-      </c>
-      <c r="R16">
-        <v>0.149567974521</v>
-      </c>
-      <c r="S16">
-        <v>0.0002118526633309661</v>
-      </c>
-      <c r="T16">
-        <v>0.0002118526633309661</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.004225666666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.012677</v>
-      </c>
-      <c r="I17">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="J17">
-        <v>0.0009551548866114287</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.02976266666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.08928800000000001</v>
-      </c>
-      <c r="O17">
-        <v>0.001678537697541373</v>
-      </c>
-      <c r="P17">
-        <v>0.001678537697541373</v>
-      </c>
-      <c r="Q17">
-        <v>0.0001257671084444445</v>
-      </c>
-      <c r="R17">
-        <v>0.001131903976</v>
-      </c>
-      <c r="S17">
-        <v>1.603263484168139E-06</v>
-      </c>
-      <c r="T17">
-        <v>1.603263484168139E-06</v>
+        <v>0.007803666968548431</v>
       </c>
     </row>
   </sheetData>
